--- a/для меня/Лист Microsoft Excel.xlsx
+++ b/для меня/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Название сайта</t>
   </si>
@@ -134,12 +134,18 @@
   </si>
   <si>
     <t>https://altynasu.kz</t>
+  </si>
+  <si>
+    <t>https://workeu.kz/</t>
+  </si>
+  <si>
+    <t>https://takephone.kz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -575,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1009,6 +1015,9 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
+      <c r="B28" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1019,6 +1028,9 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12">
+      <c r="B29" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1094,8 +1106,10 @@
     <hyperlink ref="B19" r:id="rId3"/>
     <hyperlink ref="B21" r:id="rId4" display="https://clck.yandex.ru/redir/nWO_r1F33ck?data=NnBZTWRhdFZKOHRaTENSMFc4S0VQSEhUNm9YYXd6a05JTHRod0hBYUxOeVVCN2pVMl9meHJUZWlSdk1jeUZseWZISjdVRTlSU0dHeUNJakp5dU1IR3pFaGNuMFhwTE94&amp;b64e=2&amp;sign=bfc9f38782b3715a74fd02d4ef1a19ec&amp;keyno=17"/>
     <hyperlink ref="B26" r:id="rId5" display="https://clck.yandex.ru/redir/nWO_r1F33ck?data=NnBZTWRhdFZKOHQxUjhzSWFYVGhXYWJiQTctV0h1M0xMOUJYaUp2eXJuY0ZRYWNwY1k1Z2RwZFRIcHduWU45R1M0UkFLT3I3VUxwU3NrZWFjejcxdkRwWTNwOVgtMVI5&amp;b64e=2&amp;sign=04ca4e9a3c95d038c6fe6d959c5e9aa8&amp;keyno=17"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B29" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>